--- a/11-CollaborationList/Belfast.xlsx
+++ b/11-CollaborationList/Belfast.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ken.long/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longkr/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF587E28-1E9E-1041-BE36-7F89C3763CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370A3433-3A53-5F4F-82F4-65EDA71BCE16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2600" yWindow="2300" windowWidth="27640" windowHeight="16940" xr2:uid="{87B15546-17FD-F74D-BE3D-B199F8CEA364}"/>
   </bookViews>
@@ -149,9 +149,6 @@
     <t xml:space="preserve">Kevin M. Prise </t>
   </si>
   <si>
-    <t>Patrick G Johnston Centre for Cancer Research, Queens University Belfast, 97 Lisburn Road, Belfast, BT9 7AE</t>
-  </si>
-  <si>
     <t>0000-0001-6134-7946</t>
   </si>
   <si>
@@ -159,6 +156,9 @@
   </si>
   <si>
     <t>Belfast-QUB-Physics</t>
+  </si>
+  <si>
+    <t>Patrick G Johnston Centre for Cancer Research, Queens University Belfast, 97 Lisburn Road, Belfast, BT9 7AE, UK</t>
   </si>
 </sst>
 </file>
@@ -611,7 +611,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -703,10 +703,10 @@
         <v>36</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I2" s="4">
         <v>0</v>
@@ -716,7 +716,7 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>8</v>
@@ -742,7 +742,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>6</v>
@@ -781,7 +781,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>6</v>
